--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,55 +29,55 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on March 10, 2020 at 02:51 am</t>
+    <t>For the quotation opened on March 16, 2020 at 13:00 pm</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-02-0122</t>
+    <t>2020-02-00118</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>2020-02-28</t>
+    <t>February 26, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
   </si>
   <si>
-    <t>Small Value</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-0079</t>
+    <t>2020-0085</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>2020-03-03</t>
+    <t>March 05, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>Procurement of Internet Load Card for all 142 C/MLGOOs at Php300 each monthly from January to June 2020</t>
+    <t>Support to Operation in the implementation of CMGP Programs for 1st Semester FY 2020</t>
   </si>
   <si>
     <t>ABC:</t>
   </si>
   <si>
-    <t>41,890</t>
+    <t>47,520</t>
   </si>
   <si>
     <t>Office:</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
@@ -107,49 +107,42 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Globe Prepaid Card 300
+    <t xml:space="preserve">Load card (globe 500)
 </t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>28,910</t>
-  </si>
-  <si>
-    <t>29,400</t>
-  </si>
-  <si>
-    <t>35,280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Prepaid Card 300
+    <t>35,640</t>
+  </si>
+  <si>
+    <t>36,000</t>
+  </si>
+  <si>
+    <t>40,320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load card (smart 500)
 </t>
   </si>
   <si>
-    <t>12,095</t>
-  </si>
-  <si>
-    <t>12,300</t>
-  </si>
-  <si>
-    <t>14,760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Prepaid Card 300
-</t>
-  </si>
-  <si>
-    <t>1,080</t>
+    <t>11,880</t>
+  </si>
+  <si>
+    <t>12,000</t>
+  </si>
+  <si>
+    <t>13,440</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t>42,600</t>
-  </si>
-  <si>
-    <t>51,120</t>
+    <t>48,000</t>
+  </si>
+  <si>
+    <t>53,760</t>
   </si>
   <si>
     <t>Remarks:</t>
@@ -161,7 +154,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 3 to Silicon Valley Computer Group Phil. Inc</t>
+    <t>For Item(s) 1 to 2 to Silicon Valley Computer Group Phil. Inc</t>
   </si>
   <si>
     <t>MAYBELLINE M. MONTEIRO</t>
@@ -205,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -288,13 +281,22 @@
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -313,6 +315,15 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="7">
@@ -384,6 +395,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -394,14 +423,17 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -413,6 +445,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -421,44 +467,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -481,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="103">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -515,6 +526,9 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -542,7 +556,73 @@
     <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,89 +634,23 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -656,16 +670,16 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -674,121 +688,85 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -815,13 +793,13 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1169,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,108 +1210,108 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A10" s="20" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="36" t="s">
+      <c r="K10" s="43"/>
+      <c r="L10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="30" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" customHeight="1" ht="14.45">
+      <c r="I12" s="41"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1350,48 +1328,48 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="41" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40" t="s">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="40"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="54" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -1408,327 +1386,305 @@
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="59">
-        <v>98</v>
-      </c>
-      <c r="G16" s="60" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="60">
+        <v>72</v>
+      </c>
+      <c r="G16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="61">
-        <v>300</v>
-      </c>
-      <c r="I16" s="74">
-        <v>295</v>
-      </c>
-      <c r="J16" s="75" t="s">
+      <c r="H16" s="62">
+        <v>500</v>
+      </c>
+      <c r="I16" s="69">
+        <v>495</v>
+      </c>
+      <c r="J16" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="86">
-        <v>300</v>
-      </c>
-      <c r="L16" s="87" t="s">
+      <c r="K16" s="79">
+        <v>500</v>
+      </c>
+      <c r="L16" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="94">
-        <v>360</v>
-      </c>
-      <c r="N16" s="95" t="s">
+      <c r="M16" s="85">
+        <v>560</v>
+      </c>
+      <c r="N16" s="86" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="65">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="66">
+        <v>24</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="68">
+        <v>500</v>
+      </c>
+      <c r="I17" s="71">
+        <v>495</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="81">
+        <v>500</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="87">
+        <v>560</v>
+      </c>
+      <c r="N17" s="88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="67">
-        <v>300</v>
-      </c>
-      <c r="I17" s="76">
-        <v>295</v>
-      </c>
-      <c r="J17" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="88">
-        <v>300</v>
-      </c>
-      <c r="L17" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="96">
-        <v>360</v>
-      </c>
-      <c r="N17" s="97" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="71">
-        <v>3</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="73">
-        <v>300</v>
-      </c>
-      <c r="I18" s="78">
-        <v>295</v>
-      </c>
-      <c r="J18" s="79">
-        <v>885</v>
-      </c>
-      <c r="K18" s="90">
-        <v>300</v>
-      </c>
-      <c r="L18" s="91">
-        <v>900</v>
-      </c>
-      <c r="M18" s="98">
-        <v>360</v>
-      </c>
-      <c r="N18" s="99" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="14.25" s="7" customFormat="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="92" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="13"/>
+      <c r="B27" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A28" s="12"/>
-      <c r="B28" s="103" t="s">
+      <c r="G27" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="13"/>
+      <c r="B28" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="105" t="s">
+      <c r="G28" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="107" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A29" s="12"/>
-      <c r="B29" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="106" t="s">
-        <v>51</v>
-      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1739,7 +1695,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" customHeight="1" ht="14.45">
+    <row r="31" spans="1:14">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1755,7 +1711,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" customHeight="1" ht="14.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
@@ -1763,15 +1719,19 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="99" t="s">
+        <v>52</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" customHeight="1" ht="14.45">
+    <row r="33" spans="1:14">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1779,11 +1739,9 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="9"/>
+      <c r="I33" s="98" t="s">
         <v>53</v>
-      </c>
-      <c r="I33" s="110" t="s">
-        <v>54</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1791,7 +1749,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" customHeight="1" ht="14.45">
+    <row r="34" spans="1:14">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1800,17 +1758,17 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="109" t="s">
-        <v>55</v>
-      </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A35" s="9"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="100" t="s">
+        <v>54</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1825,9 +1783,9 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A36" s="111" t="s">
-        <v>56</v>
+    <row r="36" spans="1:14">
+      <c r="A36" s="101" t="s">
+        <v>55</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1843,9 +1801,9 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A37" s="112" t="s">
-        <v>57</v>
+    <row r="37" spans="1:14">
+      <c r="A37" s="102" t="s">
+        <v>56</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1861,10 +1819,8 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A38" s="113" t="s">
-        <v>58</v>
-      </c>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1898,14 +1854,15 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="F9:K9"/>
     <mergeCell ref="J11:K12"/>
@@ -1915,26 +1872,24 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L27:M27"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,19 +29,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on March 16, 2020 at 13:00 pm</t>
+    <t>For the quotation opened on March 16, 2020 at 14:45 pm</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-02-00118</t>
+    <t>2020-02-00124</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>February 26, 2020</t>
+    <t>February 28, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -53,7 +53,7 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-0085</t>
+    <t>2020-0084</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>Support to Operation in the implementation of CMGP Programs for 1st Semester FY 2020</t>
+    <t>to be used in support to operation in monitoring Locally-Funded Projects of Regional and Provincial PDMU Personnel</t>
   </si>
   <si>
     <t>ABC:</t>
   </si>
   <si>
-    <t>47,520</t>
+    <t>102,465</t>
   </si>
   <si>
     <t>Office:</t>
@@ -98,51 +98,51 @@
     <t xml:space="preserve">Twis Trading </t>
   </si>
   <si>
-    <t>Panthertech Intl Marketing Corp.</t>
+    <t>Tadashitec Global Company</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
   </si>
   <si>
     <t>Total Price Per Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load card (smart 500)
+</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>25,740</t>
+  </si>
+  <si>
+    <t>26,000</t>
+  </si>
+  <si>
+    <t>27,560</t>
   </si>
   <si>
     <t xml:space="preserve">Load card (globe 500)
 </t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>35,640</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>40,320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (smart 500)
-</t>
-  </si>
-  <si>
-    <t>11,880</t>
-  </si>
-  <si>
-    <t>12,000</t>
-  </si>
-  <si>
-    <t>13,440</t>
+    <t>76,725</t>
+  </si>
+  <si>
+    <t>77,500</t>
+  </si>
+  <si>
+    <t>82,150</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t>48,000</t>
-  </si>
-  <si>
-    <t>53,760</t>
+    <t>103,500</t>
+  </si>
+  <si>
+    <t>109,710</t>
   </si>
   <si>
     <t>Remarks:</t>
@@ -157,28 +157,31 @@
     <t>For Item(s) 1 to 2 to Silicon Valley Computer Group Phil. Inc</t>
   </si>
   <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
-  </si>
-  <si>
-    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
-  </si>
-  <si>
-    <t>HANNAH GRACE P. SOLIS</t>
-  </si>
-  <si>
-    <t>SSVPC Member</t>
-  </si>
-  <si>
-    <t>Alternate SSVPC Member</t>
-  </si>
-  <si>
-    <t>Noted By:</t>
-  </si>
-  <si>
-    <t>BEZALEEL O. SOLTURA</t>
-  </si>
-  <si>
-    <t>SSVPC Head</t>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>JOHN M. CEREZO</t>
+  </si>
+  <si>
+    <t>ATTY. JORDAN V. NADAL</t>
+  </si>
+  <si>
+    <t>BAC Chairman</t>
+  </si>
+  <si>
+    <t>BAC Vice Chairman</t>
+  </si>
+  <si>
+    <t>BAC Member</t>
+  </si>
+  <si>
+    <t>GILBERTO L. TUMAMAC</t>
+  </si>
+  <si>
+    <t>Alternate BAC Member</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
   <si>
     <t>Eligibility Requirements:</t>
@@ -492,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -785,6 +788,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1394,7 +1403,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
       <c r="F16" s="60">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>31</v>
@@ -1415,7 +1424,7 @@
         <v>33</v>
       </c>
       <c r="M16" s="85">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="N16" s="86" t="s">
         <v>34</v>
@@ -1430,7 +1439,7 @@
       <c r="D17" s="63"/>
       <c r="E17" s="64"/>
       <c r="F17" s="66">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="G17" s="67" t="s">
         <v>31</v>
@@ -1451,7 +1460,7 @@
         <v>37</v>
       </c>
       <c r="M17" s="87">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="N17" s="88" t="s">
         <v>38</v>
@@ -1651,14 +1660,14 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
       <c r="L28" s="97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -1716,16 +1725,16 @@
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="99" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="101" t="s">
+        <v>53</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -1736,14 +1745,16 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="98" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="100" t="s">
+        <v>54</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -1766,8 +1777,8 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="100" t="s">
-        <v>54</v>
+      <c r="A35" s="102" t="s">
+        <v>55</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1784,8 +1795,8 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="101" t="s">
-        <v>55</v>
+      <c r="A36" s="103" t="s">
+        <v>56</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1802,8 +1813,8 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="102" t="s">
-        <v>56</v>
+      <c r="A37" s="104" t="s">
+        <v>57</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1888,8 +1899,10 @@
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,51 +29,48 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on March 16, 2020 at 14:45 pm</t>
+    <t>For the quotation opened on March 11, 2020 at 12:59 pm</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-02-00124</t>
+    <t>2020-03-0154</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>February 28, 2020</t>
+    <t>March 12, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
   </si>
   <si>
-    <t>Small Value Procurement</t>
+    <t>Shopping</t>
   </si>
   <si>
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-0084</t>
+    <t>2020-0092</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>March 05, 2020</t>
+    <t>March 10, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>to be used in support to operation in monitoring Locally-Funded Projects of Regional and Provincial PDMU Personnel</t>
+    <t xml:space="preserve">Meeting of the Regional Task Force to End Local Communist Armed Conflict </t>
   </si>
   <si>
     <t>ABC:</t>
   </si>
   <si>
-    <t>102,465</t>
-  </si>
-  <si>
     <t>Office:</t>
   </si>
   <si>
@@ -92,13 +89,7 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twis Trading </t>
-  </si>
-  <si>
-    <t>Tadashitec Global Company</t>
+    <t>JRF s Catering  and Events</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -107,42 +98,90 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Load card (smart 500)
+    <t>Concrete Primer Paint
+.</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>GRANDTOTAL</t>
+  </si>
+  <si>
+    <t>Semi gloo paint (Cyan Blue)
+.</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Neutralizer
 </t>
   </si>
   <si>
+    <t xml:space="preserve">QDE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint varnish 350 ml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glazing putty
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red oxide
+</t>
+  </si>
+  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>25,740</t>
-  </si>
-  <si>
-    <t>26,000</t>
-  </si>
-  <si>
-    <t>27,560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (globe 500)
+    <t xml:space="preserve">Tinting color
 </t>
   </si>
   <si>
-    <t>76,725</t>
-  </si>
-  <si>
-    <t>77,500</t>
-  </si>
-  <si>
-    <t>82,150</t>
-  </si>
-  <si>
-    <t>GRANDTOTAL</t>
-  </si>
-  <si>
-    <t>103,500</t>
-  </si>
-  <si>
-    <t>109,710</t>
+    <t xml:space="preserve">Putty knife
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty paint can
+</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sponge
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used rags
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used magazines
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assorted Paint Brush
+</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller paint with tray
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assorted sand paper
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint Thinner 350 ml
+</t>
   </si>
   <si>
     <t>Remarks:</t>
@@ -154,34 +193,31 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 2 to Silicon Valley Computer Group Phil. Inc</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>JOHN M. CEREZO</t>
-  </si>
-  <si>
-    <t>ATTY. JORDAN V. NADAL</t>
-  </si>
-  <si>
-    <t>BAC Chairman</t>
-  </si>
-  <si>
-    <t>BAC Vice Chairman</t>
-  </si>
-  <si>
-    <t>BAC Member</t>
-  </si>
-  <si>
-    <t>GILBERTO L. TUMAMAC</t>
-  </si>
-  <si>
-    <t>Alternate BAC Member</t>
-  </si>
-  <si>
-    <t>JAY-AR T. BELTRAN</t>
+    <t>For Item(s) 1 to 17 to JRF s Catering  and Events</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
+  </si>
+  <si>
+    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
+  </si>
+  <si>
+    <t>HANNAH GRACE P. SOLIS</t>
+  </si>
+  <si>
+    <t>SSVPC Member</t>
+  </si>
+  <si>
+    <t>Alternate SSVPC Member</t>
+  </si>
+  <si>
+    <t>Noted By:</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>SSVPC Head</t>
   </si>
   <si>
     <t>Eligibility Requirements:</t>
@@ -235,15 +271,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -293,13 +320,22 @@
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b val="1"/>
@@ -495,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="206">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -514,52 +550,25 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -598,7 +607,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,13 +622,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,31 +640,31 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,139 +676,469 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1175,10 +1514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,648 +1558,852 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="47" t="s">
+      <c r="K11" s="27"/>
+      <c r="L11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="44">
+        <v>36</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="39" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="25" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="24" t="s">
+      <c r="G14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="H14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="I14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
+      <c r="J15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23" t="s">
+      <c r="K15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12" s="7" customFormat="1">
+      <c r="A16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="55" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="51">
+        <v>4</v>
+      </c>
+      <c r="G16" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="H16" s="53">
+        <v>230</v>
+      </c>
+      <c r="I16" s="151">
+        <v>1</v>
+      </c>
+      <c r="J16" s="152">
+        <v>4</v>
+      </c>
+      <c r="K16" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L16" s="190">
+        <v>0</v>
+      </c>
+      <c r="M16" s="192" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="57">
+        <v>6</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="59">
+        <v>800</v>
+      </c>
+      <c r="I17" s="153">
+        <v>1</v>
+      </c>
+      <c r="J17" s="154">
+        <v>6</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="63">
+        <v>1</v>
+      </c>
+      <c r="G18" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="H18" s="65">
+        <v>350</v>
+      </c>
+      <c r="I18" s="155">
+        <v>1</v>
+      </c>
+      <c r="J18" s="156">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="14.25" s="6" customFormat="1">
+      <c r="A19" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="69">
+        <v>1</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="71">
+        <v>600</v>
+      </c>
+      <c r="I19" s="157">
+        <v>1</v>
+      </c>
+      <c r="J19" s="158">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="75">
+        <v>1</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="77">
+        <v>38</v>
+      </c>
+      <c r="I20" s="159">
+        <v>1</v>
+      </c>
+      <c r="J20" s="160">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="81">
+        <v>1</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="83">
+        <v>200</v>
+      </c>
+      <c r="I21" s="161">
+        <v>1</v>
+      </c>
+      <c r="J21" s="162">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="87">
+        <v>1</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="89">
+        <v>150</v>
+      </c>
+      <c r="I22" s="163">
+        <v>1</v>
+      </c>
+      <c r="J22" s="164">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="93">
+        <v>1</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="95">
+        <v>85</v>
+      </c>
+      <c r="I23" s="165">
+        <v>1</v>
+      </c>
+      <c r="J23" s="166">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="99">
+        <v>2</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="101">
+        <v>70</v>
+      </c>
+      <c r="I24" s="167">
+        <v>1</v>
+      </c>
+      <c r="J24" s="168">
+        <v>2</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="105">
+        <v>5</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="107">
+        <v>35</v>
+      </c>
+      <c r="I25" s="169">
+        <v>1</v>
+      </c>
+      <c r="J25" s="170">
+        <v>5</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="111">
+        <v>5</v>
+      </c>
+      <c r="G26" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="113">
+        <v>25</v>
+      </c>
+      <c r="I26" s="171">
+        <v>1</v>
+      </c>
+      <c r="J26" s="172">
+        <v>5</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="117">
+        <v>1</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="119">
+        <v>35</v>
+      </c>
+      <c r="I27" s="173">
+        <v>1</v>
+      </c>
+      <c r="J27" s="174">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="123">
+        <v>1</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="125">
+        <v>50</v>
+      </c>
+      <c r="I28" s="175">
+        <v>1</v>
+      </c>
+      <c r="J28" s="176">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="129">
+        <v>1</v>
+      </c>
+      <c r="G29" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="131">
+        <v>185</v>
+      </c>
+      <c r="I29" s="177">
+        <v>1</v>
+      </c>
+      <c r="J29" s="178">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="135">
+        <v>2</v>
+      </c>
+      <c r="G30" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="137">
+        <v>550</v>
+      </c>
+      <c r="I30" s="179">
+        <v>1</v>
+      </c>
+      <c r="J30" s="180">
+        <v>2</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="141">
+        <v>1</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="143">
+        <v>319</v>
+      </c>
+      <c r="I31" s="181">
+        <v>1</v>
+      </c>
+      <c r="J31" s="182">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="148">
+        <v>2</v>
+      </c>
+      <c r="G32" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="150">
+        <v>260</v>
+      </c>
+      <c r="I32" s="183">
+        <v>1</v>
+      </c>
+      <c r="J32" s="184">
+        <v>2</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
-      <c r="A16" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="60">
+      <c r="J33" s="189">
+        <v>36</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="62">
-        <v>500</v>
-      </c>
-      <c r="I16" s="69">
-        <v>495</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="79">
-        <v>500</v>
-      </c>
-      <c r="L16" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="85">
-        <v>530</v>
-      </c>
-      <c r="N16" s="86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="66">
-        <v>155</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="68">
-        <v>500</v>
-      </c>
-      <c r="I17" s="71">
-        <v>495</v>
-      </c>
-      <c r="J17" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="81">
-        <v>500</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="87">
-        <v>530</v>
-      </c>
-      <c r="N17" s="88" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="14.25" s="7" customFormat="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="13"/>
-      <c r="B27" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="13"/>
-      <c r="B28" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="101" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="100" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="B42" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="102" t="s">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="G42" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="103" t="s">
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="104" t="s">
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="G43" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="202" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="I48" s="201" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="203" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="204" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="205" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1892,17 +2435,30 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,19 +29,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on March 11, 2020 at 19:01 pm</t>
+    <t>For the quotation opened on March 16, 2020 at 13:00 pm</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-03-0166</t>
+    <t>2020-02-00118</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>March 25, 2020</t>
+    <t>February 26, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -53,25 +53,31 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-0095</t>
+    <t>2020-0085</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
+    <t>March 05, 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Support to Operation in the implementation of CMGP Programs for 1st Semester FY 2020</t>
   </si>
   <si>
     <t>ABC:</t>
   </si>
   <si>
+    <t>47,520</t>
+  </si>
+  <si>
     <t>Office:</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
@@ -86,13 +92,13 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>Marinold Grill Co.</t>
-  </si>
-  <si>
-    <t>Power Electromechanical Data Support and Maintenance Co.</t>
-  </si>
-  <si>
-    <t>Paseo Premiere Hotel</t>
+    <t>Silicon Valley Computer Group Phil. Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twis Trading </t>
+  </si>
+  <si>
+    <t>Panthertech Intl Marketing Corp.</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -101,19 +107,44 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">3in1 Wireless Printer 
+    <t xml:space="preserve">Load card (globe 500)
 </t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>14,700</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>35,640</t>
+  </si>
+  <si>
+    <t>36,000</t>
+  </si>
+  <si>
+    <t>40,320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load card (smart 500)
+</t>
+  </si>
+  <si>
+    <t>11,880</t>
+  </si>
+  <si>
+    <t>12,000</t>
+  </si>
+  <si>
+    <t>13,440</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
+    <t>48,000</t>
+  </si>
+  <si>
+    <t>53,760</t>
+  </si>
+  <si>
     <t>Remarks:</t>
   </si>
   <si>
@@ -123,7 +154,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 1 to Marinold Grill Co.</t>
+    <t>For Item(s) 1 to 2 to Silicon Valley Computer Group Phil. Inc</t>
   </si>
   <si>
     <t>MAYBELLINE M. MONTEIRO</t>
@@ -233,15 +264,6 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -268,6 +290,15 @@
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -281,9 +312,9 @@
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
@@ -461,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="77">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -495,18 +526,15 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -525,10 +553,10 @@
     <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -567,7 +595,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,47 +658,38 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -678,62 +697,29 @@
     <xf xfId="0" fontId="11" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1105,7 +1091,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,106 +1132,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="40" t="s">
+      <c r="K10" s="43"/>
+      <c r="L10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="36" t="s">
+      <c r="H11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="48" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="54">
-        <v>1</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="44"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
+      <c r="H12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
@@ -1264,341 +1250,363 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="G14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
+      <c r="H14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24" t="s">
+      <c r="I14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="24"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>27</v>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
-      <c r="A16" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="61">
-        <v>1</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="63" t="s">
+      <c r="A16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="64">
-        <v>1</v>
-      </c>
-      <c r="J16" s="65">
-        <v>1</v>
-      </c>
-      <c r="K16" s="72">
-        <v>2</v>
-      </c>
-      <c r="L16" s="73">
-        <v>2</v>
-      </c>
-      <c r="M16" s="76">
-        <v>5</v>
-      </c>
-      <c r="N16" s="77">
-        <v>5</v>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="57">
+        <v>72</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="58">
+        <v>500</v>
+      </c>
+      <c r="I16" s="62">
+        <v>495</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="65">
+        <v>500</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="65">
+        <v>560</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70" t="s">
+      <c r="A17" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="57">
+        <v>24</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="71">
-        <v>1</v>
-      </c>
-      <c r="K17" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="74">
-        <v>2</v>
-      </c>
-      <c r="M17" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="79">
-        <v>5</v>
+      <c r="H17" s="58">
+        <v>500</v>
+      </c>
+      <c r="I17" s="62">
+        <v>495</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="65">
+        <v>500</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="65">
+        <v>560</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="14.25" s="7" customFormat="1">
-      <c r="A19" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="14"/>
-      <c r="B26" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="14"/>
-      <c r="B27" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="G27" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="G28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1617,12 +1625,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="88" t="s">
-        <v>42</v>
-      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -1637,9 +1641,11 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="87" t="s">
-        <v>43</v>
+      <c r="H32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>52</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1656,7 +1662,9 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="72" t="s">
+        <v>53</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -1664,9 +1672,7 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="89" t="s">
-        <v>44</v>
-      </c>
+      <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1682,8 +1688,8 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="90" t="s">
-        <v>45</v>
+      <c r="A35" s="76" t="s">
+        <v>54</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1700,8 +1706,8 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="91" t="s">
-        <v>46</v>
+      <c r="A36" s="76" t="s">
+        <v>55</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1718,7 +1724,9 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="9"/>
+      <c r="A37" s="76" t="s">
+        <v>56</v>
+      </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1794,15 +1802,16 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G28:K28"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,19 +29,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on March 16, 2020 at 13:00 pm</t>
+    <t>For the quotation opened on April 13, 2020 at 17:11 pm</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-02-00118</t>
+    <t>2020-04-0166</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>February 26, 2020</t>
+    <t>April 07, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -53,31 +53,31 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-0085</t>
+    <t>2020-0094</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>March 05, 2020</t>
+    <t>April 08, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>Support to Operation in the implementation of CMGP Programs for 1st Semester FY 2020</t>
+    <t xml:space="preserve">To conduct online meetings, trainings and interviews </t>
   </si>
   <si>
     <t>ABC:</t>
   </si>
   <si>
-    <t>47,520</t>
+    <t>32,001</t>
   </si>
   <si>
     <t>Office:</t>
   </si>
   <si>
-    <t>LGMED</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
@@ -92,13 +92,11 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twis Trading </t>
-  </si>
-  <si>
-    <t>Panthertech Intl Marketing Corp.</t>
+    <t>347 School Office Supplies, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glee Star Enterprises
+</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -107,42 +105,79 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Load card (globe 500)
+    <t xml:space="preserve">ABS-CBN TV Plus w/o HDMI
 </t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>35,640</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>40,320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (smart 500)
+    <t>unit</t>
+  </si>
+  <si>
+    <t>1,499.00</t>
+  </si>
+  <si>
+    <t>1,500.12</t>
+  </si>
+  <si>
+    <t>1,600.00</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portable Bluetooth Speaker
 </t>
   </si>
   <si>
-    <t>11,880</t>
-  </si>
-  <si>
-    <t>12,000</t>
-  </si>
-  <si>
-    <t>13,440</t>
+    <t>1,000.00</t>
+  </si>
+  <si>
+    <t>2,500.75</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
+  </si>
+  <si>
+    <t>1,500.00</t>
+  </si>
+  <si>
+    <t>7,500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Printer 3in1 
+</t>
+  </si>
+  <si>
+    <t>14,700.00</t>
+  </si>
+  <si>
+    <t>14,000.17</t>
+  </si>
+  <si>
+    <t>28,000.34</t>
+  </si>
+  <si>
+    <t>15,000.00</t>
+  </si>
+  <si>
+    <t>30,000.00</t>
+  </si>
+  <si>
+    <t>13,500.00</t>
+  </si>
+  <si>
+    <t>27,000.00</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t>48,000</t>
-  </si>
-  <si>
-    <t>53,760</t>
+    <t>32,001.21</t>
+  </si>
+  <si>
+    <t>36,600.00</t>
+  </si>
+  <si>
+    <t>36,500.00</t>
   </si>
   <si>
     <t>Remarks:</t>
@@ -154,7 +189,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 2 to Silicon Valley Computer Group Phil. Inc</t>
+    <t>For Item(s) 1 to 3 to 347 School Office Supplies, Inc.</t>
   </si>
   <si>
     <t>MAYBELLINE M. MONTEIRO</t>
@@ -290,13 +325,13 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b val="1"/>
@@ -492,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -526,9 +561,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -673,11 +705,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -685,8 +714,17 @@
     <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1091,7 +1129,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,106 +1170,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42" t="s">
+      <c r="I10" s="40"/>
+      <c r="J10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="47" t="s">
+      <c r="K11" s="35"/>
+      <c r="L11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
@@ -1250,363 +1288,385 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="24" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="22"/>
+      <c r="M14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="54" t="s">
+      <c r="J15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="K15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
+      <c r="A16" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
-      <c r="A16" s="56" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="56">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="57">
-        <v>72</v>
-      </c>
-      <c r="G16" s="57" t="s">
+      <c r="H16" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="58">
-        <v>500</v>
-      </c>
-      <c r="I16" s="62">
-        <v>495</v>
-      </c>
-      <c r="J16" s="63" t="s">
+      <c r="I16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="65">
-        <v>500</v>
-      </c>
-      <c r="L16" s="65" t="s">
+      <c r="J16" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="65">
-        <v>560</v>
-      </c>
-      <c r="N16" s="65" t="s">
+      <c r="L16" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="66" t="s">
         <v>34</v>
       </c>
+      <c r="N16" s="66" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="57">
-        <v>24</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="58">
-        <v>500</v>
-      </c>
-      <c r="I17" s="62">
-        <v>495</v>
-      </c>
-      <c r="J17" s="63" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="56">
+        <v>5</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="65">
-        <v>500</v>
-      </c>
-      <c r="L17" s="65" t="s">
+      <c r="I17" s="60">
+        <v>500.15</v>
+      </c>
+      <c r="J17" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="65">
-        <v>560</v>
-      </c>
-      <c r="N17" s="65" t="s">
+      <c r="K17" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="66" t="s">
         <v>38</v>
       </c>
+      <c r="M17" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="64"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="65" t="s">
+      <c r="A18" s="59" t="s">
         <v>41</v>
       </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56">
+        <v>2</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="14.25" s="7" customFormat="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="66" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="13"/>
-      <c r="B27" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="9"/>
       <c r="G28" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="74" t="s">
+        <v>60</v>
+      </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1641,12 +1701,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>52</v>
-      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -1661,9 +1717,11 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="72" t="s">
-        <v>53</v>
+      <c r="H33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1680,7 +1738,9 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="73" t="s">
+        <v>64</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -1688,9 +1748,7 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="76" t="s">
-        <v>54</v>
-      </c>
+      <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1706,8 +1764,8 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="76" t="s">
-        <v>55</v>
+      <c r="A36" s="77" t="s">
+        <v>65</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1724,8 +1782,8 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="76" t="s">
-        <v>56</v>
+      <c r="A37" s="77" t="s">
+        <v>66</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1742,7 +1800,9 @@
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="9"/>
+      <c r="A38" s="77" t="s">
+        <v>67</v>
+      </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1803,15 +1863,16 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G29:K29"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,19 +29,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on May 18, 2020 at 14:30 pm</t>
+    <t>For the quotation opened on April 22, 2020 at 10:00 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-05-0173</t>
+    <t>2020-03-0165</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>May 15, 2020</t>
+    <t>April 07, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -53,19 +53,19 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-00100</t>
+    <t>2020-0095</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>April 13, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>Personal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service)</t>
+    <t xml:space="preserve">Equipment for Audio-Video Conferencing System </t>
   </si>
   <si>
     <t>ABC:</t>
@@ -89,11 +89,10 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Melcheshoe Trading
-</t>
-  </si>
-  <si>
-    <t>347 School Office Supplies, Inc.</t>
+    <t>ASR Computer Trading and Services</t>
+  </si>
+  <si>
+    <t>Joneco Tech. Marketing Corp.</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -102,27 +101,53 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>Bucket Hat with Attached Plastic PVC 
-Color: Black (102) and Red (102)</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>26,520.00</t>
+    <t>Portable Speaker
+* 15" 500W Portable Sound System
+* With 2 Wireless Microphone
+* Remote Controlled
+* Rechargeable Built-in-Battery
+* Line-in Guitar Input / Mic
+* Impedance: 4Ohms
+* Frequency Response: 50Hz - 20KHz
+* S/N Ratio : 71dB</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>23,000.00</t>
+  </si>
+  <si>
+    <t>46,000.00</t>
+  </si>
+  <si>
+    <t>22,999.00</t>
+  </si>
+  <si>
+    <t>45,998.00</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t>Ballcap with Removable Plastic PVC
-Color: Blue</t>
-  </si>
-  <si>
-    <t>29,400.00</t>
-  </si>
-  <si>
-    <t>55,920.00</t>
+    <t xml:space="preserve">Laptop
+* Intel Core i7-10510U (1.8 GHz base frequency(2b), up to 4.9 GHz base with Intel® Turbo Boost Technology(2g), 8 MB cache, 4 cores)
+* 8 GB DDR4-2400 SDRAM 
+* 512 GB PCIe NVMe M.2 SSD
+* 4-cell, 53 Wh Li-ion polymer
+* 13.3" diagonal FHD IPS BrightView </t>
+  </si>
+  <si>
+    <t>48,010.00</t>
+  </si>
+  <si>
+    <t>48,000.00</t>
+  </si>
+  <si>
+    <t>94,010.00</t>
+  </si>
+  <si>
+    <t>93,998.00</t>
   </si>
   <si>
     <t>Remarks:</t>
@@ -134,21 +159,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 2 to</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">Melcheshoe Trading </t>
-    </r>
+    <t>For Item(s) 1 to 2 to Joneco Tech. Marketing Corp.</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -324,13 +335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9edf7"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFd9edf7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -629,26 +640,26 @@
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1162,7 +1173,7 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="47">
-        <v>55920</v>
+        <v>93998</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="42" t="s">
@@ -1213,11 +1224,11 @@
       <c r="H14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="17" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="48" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="17"/>
@@ -1233,16 +1244,16 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="48" t="s">
         <v>27</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -1261,61 +1272,61 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="53">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="G16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="54">
-        <v>130</v>
-      </c>
-      <c r="I16" s="55">
-        <v>130</v>
+      <c r="H16" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="57">
-        <v>1</v>
-      </c>
-      <c r="L16" s="57">
-        <v>204</v>
-      </c>
-      <c r="M16" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="57">
+      <c r="K16" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
       <c r="F17" s="53">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="54">
-        <v>150</v>
-      </c>
-      <c r="I17" s="55">
-        <v>150</v>
+      <c r="H17" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="J17" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="57">
-        <v>1</v>
-      </c>
-      <c r="L17" s="57">
-        <v>196</v>
+        <v>36</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -1329,17 +1340,17 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="59" t="s">
+      <c r="I18" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="57">
-        <v>400</v>
+      <c r="J18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -1362,7 +1373,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1380,7 +1391,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1398,7 +1409,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1432,25 +1443,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="61" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">Melcheshoe Trading </t>
-          </r>
-        </is>
-      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="6"/>
@@ -1498,21 +1494,21 @@
     <row r="27" spans="1:14">
       <c r="A27" s="9"/>
       <c r="B27" s="62" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="6"/>
       <c r="G27" s="64" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="10"/>
       <c r="L27" s="66" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -1520,21 +1516,21 @@
     <row r="28" spans="1:14">
       <c r="A28" s="9"/>
       <c r="B28" s="63" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="6"/>
       <c r="G28" s="65" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="10"/>
       <c r="L28" s="67" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -1593,14 +1589,14 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="64" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -1613,14 +1609,14 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="65" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="65" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -1645,7 +1641,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="68" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1663,7 +1659,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1681,7 +1677,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="68" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$N$56</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,19 +31,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on April 22, 2020 at 10:00 am</t>
+    <t>For the quotation opened on May 29, 2020 at 10:11 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-03-0165</t>
+    <t>2020-05-0174</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>April 07, 2020</t>
+    <t>May 18, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -53,19 +55,16 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-0095</t>
+    <t>2020-00101</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>April 13, 2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t xml:space="preserve">Equipment for Audio-Video Conferencing System </t>
+    <t xml:space="preserve">For the internet connectivity of C/MLGOOs for May and June 2020 </t>
   </si>
   <si>
     <t>ABC:</t>
@@ -89,10 +88,7 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>ASR Computer Trading and Services</t>
-  </si>
-  <si>
-    <t>Joneco Tech. Marketing Corp.</t>
+    <t>Silicon Valley Computer Group Phil. Inc</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -101,53 +97,34 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>Portable Speaker
-* 15" 500W Portable Sound System
-* With 2 Wireless Microphone
-* Remote Controlled
-* Rechargeable Built-in-Battery
-* Line-in Guitar Input / Mic
-* Impedance: 4Ohms
-* Frequency Response: 50Hz - 20KHz
-* S/N Ratio : 71dB</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>23,000.00</t>
-  </si>
-  <si>
-    <t>46,000.00</t>
-  </si>
-  <si>
-    <t>22,999.00</t>
-  </si>
-  <si>
-    <t>45,998.00</t>
+    <t xml:space="preserve">Globe Prepaid Card 300
+</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>57,820.00</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Laptop
-* Intel Core i7-10510U (1.8 GHz base frequency(2b), up to 4.9 GHz base with Intel® Turbo Boost Technology(2g), 8 MB cache, 4 cores)
-* 8 GB DDR4-2400 SDRAM 
-* 512 GB PCIe NVMe M.2 SSD
-* 4-cell, 53 Wh Li-ion polymer
-* 13.3" diagonal FHD IPS BrightView </t>
-  </si>
-  <si>
-    <t>48,010.00</t>
-  </si>
-  <si>
-    <t>48,000.00</t>
-  </si>
-  <si>
-    <t>94,010.00</t>
-  </si>
-  <si>
-    <t>93,998.00</t>
+    <t xml:space="preserve">Smart Prepaid Card 300
+</t>
+  </si>
+  <si>
+    <t>24,190.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Prepaid Card 300
+</t>
+  </si>
+  <si>
+    <t>1,770.00</t>
+  </si>
+  <si>
+    <t>83,780.00</t>
   </si>
   <si>
     <t>Remarks:</t>
@@ -159,7 +136,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 2 to Joneco Tech. Marketing Corp.</t>
+    <t>For Item(s) 1 to 3 to Silicon Valley Computer Group Phil. Inc</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -207,7 +184,7 @@
     <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -285,15 +262,6 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FFff0000"/>
       <name val="Cambria"/>
@@ -335,13 +303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFd9edf7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9edf7"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -474,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -511,9 +479,6 @@
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -625,58 +590,55 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1048,8 +1010,8 @@
   </sheetPr>
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.109375" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1058,10 +1020,10 @@
     <col min="2" max="2" width="6.77734375" customWidth="true" style="0"/>
     <col min="3" max="3" width="7.88671875" customWidth="true" style="0"/>
     <col min="4" max="4" width="7.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.6640625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.21875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.5546875" customWidth="true" style="0"/>
     <col min="7" max="7" width="7.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.33203125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.33203125" customWidth="true" style="0"/>
     <col min="9" max="9" width="16.6640625" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.6640625" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.6640625" customWidth="true" style="0"/>
@@ -1090,106 +1052,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.4">
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42" t="s">
+      <c r="I10" s="40"/>
+      <c r="J10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="29" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="33" t="s">
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="42" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="46">
+        <v>83780</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="47">
-        <v>93998</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
@@ -1208,173 +1170,173 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="H14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="48" t="s">
+      <c r="J15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="7" t="s">
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="11.4" s="6" customFormat="1">
+      <c r="A16" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="51">
+        <v>196</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="11.4" s="6" customFormat="1">
-      <c r="A16" s="50" t="s">
+      <c r="H16" s="52">
+        <v>300</v>
+      </c>
+      <c r="I16" s="53">
+        <v>295</v>
+      </c>
+      <c r="J16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="53">
-        <v>2</v>
-      </c>
-      <c r="G16" s="53" t="s">
+      <c r="K16" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="61" t="s">
-        <v>34</v>
+      <c r="L16" s="56">
+        <v>0</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="N16" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="53">
-        <v>1</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>37</v>
-      </c>
+      <c r="A17" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="51">
+        <v>82</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="52">
+        <v>300</v>
+      </c>
+      <c r="I17" s="53">
+        <v>295</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="A18" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="51">
+        <v>6</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="52">
+        <v>300</v>
+      </c>
+      <c r="I18" s="53">
+        <v>295</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="13.2" s="5" customFormat="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>34</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1390,8 +1352,8 @@
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
-        <v>41</v>
+      <c r="A21" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1409,7 +1371,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1426,7 +1388,9 @@
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1442,9 +1406,7 @@
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1460,7 +1422,9 @@
       <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1484,8 +1448,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1493,66 +1457,66 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="9"/>
-      <c r="B27" s="62" t="s">
-        <v>44</v>
-      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="64" t="s">
-        <v>45</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="66" t="s">
-        <v>46</v>
-      </c>
+      <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="9"/>
-      <c r="B28" s="63" t="s">
-        <v>47</v>
+      <c r="B28" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="65" t="s">
-        <v>48</v>
+      <c r="G28" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="67" t="s">
-        <v>49</v>
+      <c r="L28" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="63" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="65" t="s">
+        <v>44</v>
+      </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1568,7 +1532,7 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1584,20 +1548,16 @@
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="64" t="s">
-        <v>50</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1608,15 +1568,15 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="65" t="s">
-        <v>49</v>
+      <c r="E33" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="65" t="s">
-        <v>52</v>
+      <c r="J33" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -1628,21 +1588,23 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="63" t="s">
+        <v>44</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="68" t="s">
-        <v>53</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1658,8 +1620,8 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="68" t="s">
-        <v>54</v>
+      <c r="A36" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1676,8 +1638,8 @@
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="68" t="s">
-        <v>55</v>
+      <c r="A37" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1694,7 +1656,9 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="6"/>
+      <c r="A38" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4347,17 +4311,18 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G29:K29"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,19 +31,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on May 29, 2020 at 10:11 am</t>
+    <t>For the quotation opened on June 08, 2020 at 10:00 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-05-0174</t>
+    <t>2020-06-0184</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>June 03, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-00101</t>
+    <t>2020-107</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t xml:space="preserve">For the internet connectivity of C/MLGOOs for May and June 2020 </t>
+    <t xml:space="preserve">Replacement tires of DILG Service Vehicles (Crosswind 8994 and 8974) as part of Preventive Maintenance  </t>
   </si>
   <si>
     <t>ABC:</t>
@@ -88,7 +88,13 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
+    <t>Gohlong Tire and Service Center</t>
+  </si>
+  <si>
+    <t>Apolega Tire and Service Center</t>
+  </si>
+  <si>
+    <t>Natividad Tire Supply and Enterprises</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -97,36 +103,37 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Globe Prepaid Card 300
+    <t xml:space="preserve">Tire, 215/65 R15
 </t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>57,820.00</t>
+    <t>6,500.00</t>
+  </si>
+  <si>
+    <t>6,300.00</t>
+  </si>
+  <si>
+    <t>50,400.00</t>
+  </si>
+  <si>
+    <t>6,800.00</t>
+  </si>
+  <si>
+    <t>54,400.00</t>
+  </si>
+  <si>
+    <t>6,850.00</t>
+  </si>
+  <si>
+    <t>54,800.00</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Smart Prepaid Card 300
-</t>
-  </si>
-  <si>
-    <t>24,190.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Prepaid Card 300
-</t>
-  </si>
-  <si>
-    <t>1,770.00</t>
-  </si>
-  <si>
-    <t>83,780.00</t>
-  </si>
-  <si>
     <t>Remarks:</t>
   </si>
   <si>
@@ -136,7 +143,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 3 to Silicon Valley Computer Group Phil. Inc</t>
+    <t>For Item(s) 1 to 1 to Gohlong Tire and Service Center</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -184,7 +191,7 @@
     <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -245,6 +252,24 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -442,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -470,27 +495,33 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -524,7 +555,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,58 +618,61 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1011,32 +1045,32 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.109375" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="7.88671875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.21875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.5546875" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.33203125" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.6640625" customWidth="true" style="0"/>
-    <col min="10" max="10" width="16.6640625" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16.6640625" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16.6640625" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16.6640625" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.6640625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="7.28515625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="7.5703125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.28515625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.5703125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="7.140625" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.7109375" customWidth="true" style="0"/>
+    <col min="10" max="10" width="16.7109375" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.7109375" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16.7109375" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16.7109375" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:14" customHeight="1" ht="14.4">
+    <row r="3" spans="1:14" customHeight="1" ht="14.45">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1051,107 +1085,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customHeight="1" ht="14.4">
-      <c r="F8" s="26" t="s">
+    <row r="8" spans="1:14" customHeight="1" ht="14.45">
+      <c r="F8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="41" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="38" t="s">
+      <c r="K10" s="44"/>
+      <c r="L10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="28" t="s">
+      <c r="I11" s="42"/>
+      <c r="J11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="32" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="46">
-        <v>83780</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="41" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="48">
+        <v>50400</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
@@ -1170,394 +1204,390 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>25</v>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="11.4" s="6" customFormat="1">
-      <c r="A16" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="51">
-        <v>196</v>
-      </c>
-      <c r="G16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="52">
-        <v>300</v>
-      </c>
-      <c r="I16" s="53">
-        <v>295</v>
-      </c>
-      <c r="J16" s="54" t="s">
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="54">
+        <v>8</v>
+      </c>
+      <c r="G16" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="56">
-        <v>0</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="56">
-        <v>0</v>
+      <c r="H16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="51">
-        <v>82</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="52">
-        <v>300</v>
-      </c>
-      <c r="I17" s="53">
-        <v>295</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="51">
-        <v>6</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="52">
-        <v>300</v>
-      </c>
-      <c r="I18" s="53">
-        <v>295</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="13.2" s="5" customFormat="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
+      <c r="A19" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="A21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="9"/>
-      <c r="B28" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9"/>
-      <c r="B29" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="14"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="15"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="66" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1568,43 +1598,39 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="62" t="s">
-        <v>46</v>
-      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="6"/>
+      <c r="A34" s="69" t="s">
+        <v>51</v>
+      </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="63" t="s">
-        <v>44</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="63" t="s">
-        <v>47</v>
-      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="6"/>
+      <c r="A35" s="69" t="s">
+        <v>52</v>
+      </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1620,8 +1646,8 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="66" t="s">
-        <v>48</v>
+      <c r="A36" s="69" t="s">
+        <v>53</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1638,9 +1664,7 @@
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="66" t="s">
-        <v>49</v>
-      </c>
+      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1656,9 +1680,7 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4310,19 +4332,17 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,19 +31,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on June 08, 2020 at 10:00 am</t>
+    <t>For the quotation opened on June 08, 2020 at 08:00 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-06-0184</t>
+    <t>2020-06-0189</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>June 03, 2020</t>
+    <t>June 04, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,16 +55,19 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-107</t>
+    <t>2020-108</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
+    <t>June 08, 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t xml:space="preserve">Replacement tires of DILG Service Vehicles (Crosswind 8994 and 8974) as part of Preventive Maintenance  </t>
+    <t>For the payment of fuel and lubricants for the month of April 2020</t>
   </si>
   <si>
     <t>ABC:</t>
@@ -76,6 +79,9 @@
     <t>FAD</t>
   </si>
   <si>
+    <t>ITEM NO.</t>
+  </si>
+  <si>
     <t>ITEM DESCRIPTION</t>
   </si>
   <si>
@@ -88,13 +94,14 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>Gohlong Tire and Service Center</t>
-  </si>
-  <si>
-    <t>Apolega Tire and Service Center</t>
-  </si>
-  <si>
-    <t>Natividad Tire Supply and Enterprises</t>
+    <t>168 Paragon International General Contractror   Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-08 Auto Shop
+</t>
+  </si>
+  <si>
+    <t>88 Hot Spring Resort</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -103,32 +110,11 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Tire, 215/65 R15
+    <t xml:space="preserve">Fuel and Lubricants
 </t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>6,500.00</t>
-  </si>
-  <si>
-    <t>6,300.00</t>
-  </si>
-  <si>
-    <t>50,400.00</t>
-  </si>
-  <si>
-    <t>6,800.00</t>
-  </si>
-  <si>
-    <t>54,400.00</t>
-  </si>
-  <si>
-    <t>6,850.00</t>
-  </si>
-  <si>
-    <t>54,800.00</t>
+    <t>lot</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
@@ -143,34 +129,32 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 1 to Gohlong Tire and Service Center</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>JOHN M. CEREZO</t>
-  </si>
-  <si>
-    <t>ATTY. JORDAN V. NADAL</t>
-  </si>
-  <si>
-    <t>BAC Chairman</t>
-  </si>
-  <si>
-    <t>BAC Vice Chairman</t>
-  </si>
-  <si>
-    <t>BAC Member</t>
-  </si>
-  <si>
-    <t>GILBERTO L. TUMAMAC</t>
-  </si>
-  <si>
-    <t>JAY-AR T. BELTRAN</t>
-  </si>
-  <si>
-    <t>Alternate BAC Member</t>
+    <t xml:space="preserve">For Item(s) 1 to 1 to 7-08 Auto Shop
+</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
+  </si>
+  <si>
+    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
+  </si>
+  <si>
+    <t>HANNAH GRACE P. SOLIS</t>
+  </si>
+  <si>
+    <t>SSVPC Member</t>
+  </si>
+  <si>
+    <t>Alternate SSVPC Member</t>
+  </si>
+  <si>
+    <t>Noted By:</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>SSVPC Head</t>
   </si>
   <si>
     <t>Eligibility Requirements:</t>
@@ -328,13 +312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9edf7"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFd9edf7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -359,6 +343,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -409,28 +415,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -467,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -529,10 +513,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -547,34 +531,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -588,6 +566,12 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -619,7 +603,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -636,22 +623,25 @@
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -722,11 +712,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2638425" cy="714375"/>
+    <xdr:ext cx="2400300" cy="742950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2" descr=""/>
@@ -1044,7 +1034,7 @@
   </sheetPr>
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1150,35 +1140,35 @@
       <c r="F11" s="45"/>
       <c r="G11" s="8"/>
       <c r="H11" s="40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" s="35"/>
       <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="48">
-        <v>50400</v>
+        <v>580</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="8"/>
       <c r="H12" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="32"/>
@@ -1205,124 +1195,128 @@
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
       <c r="A14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="49" t="s">
         <v>23</v>
       </c>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="18"/>
-      <c r="K14" s="18" t="s">
-        <v>24</v>
+      <c r="K14" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>27</v>
+      <c r="H15" s="21"/>
+      <c r="I15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>29</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
-      <c r="A16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="50"/>
+      <c r="A16" s="51">
+        <v>1</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="54">
-        <v>8</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="57" t="s">
+      <c r="F16" s="55">
+        <v>290</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="H16" s="56">
+        <v>32.63</v>
+      </c>
+      <c r="I16" s="56">
+        <v>1</v>
+      </c>
+      <c r="J16" s="57">
+        <v>290</v>
+      </c>
+      <c r="K16" s="60">
+        <v>2</v>
+      </c>
+      <c r="L16" s="60">
+        <v>580</v>
+      </c>
+      <c r="M16" s="57">
+        <v>3</v>
+      </c>
+      <c r="N16" s="57">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="57">
+        <v>290</v>
+      </c>
+      <c r="K17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>36</v>
+      <c r="L17" s="62">
+        <v>580</v>
+      </c>
+      <c r="M17" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="57">
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1342,8 +1336,8 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
-      <c r="A19" s="62" t="s">
-        <v>38</v>
+      <c r="A19" s="64" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1361,7 +1355,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1379,7 +1373,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1413,7 +1407,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1463,44 +1457,44 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="10"/>
-      <c r="B26" s="63" t="s">
-        <v>42</v>
+      <c r="B26" s="65" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="65" t="s">
-        <v>43</v>
+      <c r="G26" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="67" t="s">
-        <v>44</v>
+      <c r="L26" s="69" t="s">
+        <v>39</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="10"/>
-      <c r="B27" s="64" t="s">
-        <v>45</v>
+      <c r="B27" s="66" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="66" t="s">
-        <v>46</v>
+      <c r="G27" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="68" t="s">
-        <v>47</v>
+      <c r="L27" s="70" t="s">
+        <v>41</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -1558,16 +1552,16 @@
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="65" t="s">
-        <v>48</v>
-      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="H31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -1578,16 +1572,14 @@
       <c r="B32" s="9"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="66" t="s">
-        <v>47</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="I32" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1610,8 +1602,8 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="69" t="s">
-        <v>51</v>
+      <c r="A34" s="71" t="s">
+        <v>45</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1628,8 +1620,8 @@
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="69" t="s">
-        <v>52</v>
+      <c r="A35" s="71" t="s">
+        <v>46</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1646,8 +1638,8 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="69" t="s">
-        <v>53</v>
+      <c r="A36" s="71" t="s">
+        <v>47</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4306,6 +4298,18 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="J11:K12"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -4315,19 +4319,8 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F14:F15"/>
@@ -4339,10 +4332,8 @@
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$N$56</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,19 +32,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on June 08, 2020 at 08:00 am</t>
+    <t>For the quotation opened on July 16, 2020 at 12:00 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-06-0189</t>
+    <t>2020-07-0244</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>June 04, 2020</t>
+    <t>July 16, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,19 +56,19 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-108</t>
+    <t>2020-139</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>June 08, 2020</t>
+    <t>July 13, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>For the payment of fuel and lubricants for the month of April 2020</t>
+    <t>HUMAN RESOURCE MERIT PROMOTION AND SELECTION BOARD MEETING CUM ASSESSMENT FOR ADMINISTRATIVE POSITIONS</t>
   </si>
   <si>
     <t>ABC:</t>
@@ -94,14 +95,13 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>168 Paragon International General Contractror   Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-08 Auto Shop
-</t>
-  </si>
-  <si>
-    <t>88 Hot Spring Resort</t>
+    <t>Queen Lois Catering Service</t>
+  </si>
+  <si>
+    <t>Fat Kat</t>
+  </si>
+  <si>
+    <t>Twis Catering Services</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -110,11 +110,13 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel and Lubricants
-</t>
-  </si>
-  <si>
-    <t>lot</t>
+    <t>HRMPSB Meeting</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>10,000.00</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
@@ -129,8 +131,7 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t xml:space="preserve">For Item(s) 1 to 1 to 7-08 Auto Shop
-</t>
+    <t>For Item(s) 1 to 1 to Queen Lois Catering Service</t>
   </si>
   <si>
     <t>MAYBELLINE M. MONTEIRO</t>
@@ -164,6 +165,15 @@
   </si>
   <si>
     <t xml:space="preserve">          1. Valid Business Permit       2. Latest Income / Business Tax Return       3. PhilGEPS Registration No.</t>
+  </si>
+  <si>
+    <t>PR Date:</t>
+  </si>
+  <si>
+    <t>RFQ Date:</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
   </si>
 </sst>
 </file>
@@ -175,7 +185,7 @@
     <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -267,6 +277,15 @@
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -280,12 +299,12 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,13 +325,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EDF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFd9edf7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFD6CFD5"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -322,8 +347,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EDF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -348,25 +385,17 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color rgb="FF6A6D6D"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color rgb="FF6A6D6D"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color rgb="FF6A6D6D"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color rgb="FF6A6D6D"/>
       </bottom>
     </border>
     <border>
@@ -434,6 +463,42 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF(0,0,0)"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF(0,0,0)"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF(0,0,0)"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF(0,0,0)"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF6a6d6d"/>
       </left>
@@ -451,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -494,179 +559,224 @@
     <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="8" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="164" fillId="8" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="9" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,106 +1186,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="40" t="s">
+      <c r="K10" s="31"/>
+      <c r="L10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="30" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="34" t="s">
+      <c r="K11" s="45"/>
+      <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="48">
-        <v>580</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="43" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="64">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
@@ -1194,56 +1304,56 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="19" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="49" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18" t="s">
+      <c r="L14" s="51"/>
+      <c r="M14" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="7" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -1254,69 +1364,69 @@
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
-      <c r="A16" s="51">
+      <c r="A16" s="18">
         <v>1</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="55">
-        <v>290</v>
-      </c>
-      <c r="G16" s="55" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="74">
+        <v>20</v>
+      </c>
+      <c r="G16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="56">
-        <v>32.63</v>
-      </c>
-      <c r="I16" s="56">
-        <v>1</v>
-      </c>
-      <c r="J16" s="57">
-        <v>290</v>
-      </c>
-      <c r="K16" s="60">
-        <v>2</v>
-      </c>
-      <c r="L16" s="60">
-        <v>580</v>
-      </c>
-      <c r="M16" s="57">
-        <v>3</v>
-      </c>
-      <c r="N16" s="57">
-        <v>870</v>
+      <c r="H16" s="75">
+        <v>500</v>
+      </c>
+      <c r="I16" s="76">
+        <v>500</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="84">
+        <v>0</v>
+      </c>
+      <c r="L16" s="84">
+        <v>0</v>
+      </c>
+      <c r="M16" s="81">
+        <v>0</v>
+      </c>
+      <c r="N16" s="81">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="59" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="57">
-        <v>290</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="62">
-        <v>580</v>
-      </c>
-      <c r="M17" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="57">
-        <v>870</v>
+      <c r="K17" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="85">
+        <v>0</v>
+      </c>
+      <c r="M17" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="81">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1336,8 +1446,8 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
-      <c r="A19" s="64" t="s">
-        <v>33</v>
+      <c r="A19" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1355,7 +1465,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1373,7 +1483,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1407,7 +1517,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1457,46 +1567,46 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="10"/>
-      <c r="B26" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="69" t="s">
+      <c r="G26" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="58"/>
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="10"/>
-      <c r="B27" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="70" t="s">
+      <c r="G27" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="58"/>
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14">
@@ -1508,8 +1618,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -1532,7 +1642,7 @@
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1548,7 +1658,7 @@
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1556,12 +1666,12 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="11"/>
+      <c r="I31" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="62"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -1576,10 +1686,10 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="6"/>
+      <c r="I32" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="63"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1602,8 +1712,8 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="71" t="s">
-        <v>45</v>
+      <c r="A34" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1620,8 +1730,8 @@
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="71" t="s">
-        <v>46</v>
+      <c r="A35" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1638,8 +1748,8 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="71" t="s">
-        <v>47</v>
+      <c r="A36" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4298,12 +4408,20 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A14:A15"/>
@@ -4320,20 +4438,12 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4348,4 +4458,165 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" spans="1:14">
+      <c r="C3" s="66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="C4" s="66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="F8" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" s="68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="69"/>
+      <c r="L10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="73"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -32,19 +32,19 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on July 16, 2020 at 12:00 am</t>
+    <t>For the quotation opened on October 26, 2020 at 12:00 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-07-0244</t>
+    <t>2020-09-0364</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>July 16, 2020</t>
+    <t>September 14, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -56,19 +56,16 @@
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-139</t>
+    <t>2020-200</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>July 13, 2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>HUMAN RESOURCE MERIT PROMOTION AND SELECTION BOARD MEETING CUM ASSESSMENT FOR ADMINISTRATIVE POSITIONS</t>
+    <t>SALINTUBIG IEC Materials</t>
   </si>
   <si>
     <t>ABC:</t>
@@ -77,7 +74,7 @@
     <t>Office:</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGCDD</t>
   </si>
   <si>
     <t>ITEM NO.</t>
@@ -95,13 +92,15 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>Queen Lois Catering Service</t>
-  </si>
-  <si>
-    <t>Fat Kat</t>
-  </si>
-  <si>
-    <t>Twis Catering Services</t>
+    <t>SD Leal Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover and Pages Corporation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorilla Trading
+</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -110,18 +109,141 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>HRMPSB Meeting</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>10,000.00</t>
+    <t>Poster: Palarong Pambata ukol sa COVID19 (DOH/UNICEF) (1)</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>7,922.00</t>
+  </si>
+  <si>
+    <t>15,300.00</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (2)</t>
+  </si>
+  <si>
+    <t>6,885.00</t>
+  </si>
+  <si>
+    <t>12,750.00</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (3)</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (4)</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin and COVID19 (DOH/ UNICEF) (5)</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (6)</t>
+  </si>
+  <si>
+    <t>Poster: Do you wash your hands</t>
+  </si>
+  <si>
+    <t>Poster: When to wash your hands</t>
+  </si>
+  <si>
+    <t>Poster: 20 second hand washing rule</t>
+  </si>
+  <si>
+    <t>Poster: 80% of infections through hands</t>
+  </si>
+  <si>
+    <t>Poster: 16% reduction of respiratory risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster: 50% reduction of diarrheal  diseases </t>
+  </si>
+  <si>
+    <t>Poster: Maximum Prescribed Implementation Timelines</t>
+  </si>
+  <si>
+    <t>6,480.00</t>
+  </si>
+  <si>
+    <t>12,800.00</t>
+  </si>
+  <si>
+    <t>Poster: PIT vs. PMC</t>
+  </si>
+  <si>
+    <t>5,664.00</t>
+  </si>
+  <si>
+    <t>9,280.00</t>
+  </si>
+  <si>
+    <t>Poster: Eligible Projects for Funding</t>
+  </si>
+  <si>
+    <t>6,560.00</t>
+  </si>
+  <si>
+    <t>12,000.00</t>
+  </si>
+  <si>
+    <t>Poster: Levels of Service for Water Supply System</t>
+  </si>
+  <si>
+    <t>6,400.00</t>
+  </si>
+  <si>
+    <t>Poster: LGU Counterpart</t>
+  </si>
+  <si>
+    <t>5,408.00</t>
+  </si>
+  <si>
+    <t>11,200.00</t>
+  </si>
+  <si>
+    <t>Briefer on CapDev Training Program under the AM Program</t>
+  </si>
+  <si>
+    <t>29,440.00</t>
+  </si>
+  <si>
+    <t>28,800.00</t>
+  </si>
+  <si>
+    <t>Briefer on CapDev Training Programs For Water Supply System</t>
+  </si>
+  <si>
+    <t>16,720.00</t>
+  </si>
+  <si>
+    <t>AM Brochures</t>
+  </si>
+  <si>
+    <t>11,520.00</t>
+  </si>
+  <si>
+    <t>Desk Calendar</t>
+  </si>
+  <si>
+    <t>62,000.00</t>
+  </si>
+  <si>
+    <t>72,000.00</t>
+  </si>
+  <si>
+    <t>AM Fact Sheet</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
+    <t>234,393.00</t>
+  </si>
+  <si>
+    <t>354,005.00</t>
+  </si>
+  <si>
     <t>Remarks:</t>
   </si>
   <si>
@@ -131,31 +253,34 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 1 to Queen Lois Catering Service</t>
-  </si>
-  <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
-  </si>
-  <si>
-    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
-  </si>
-  <si>
-    <t>HANNAH GRACE P. SOLIS</t>
-  </si>
-  <si>
-    <t>SSVPC Member</t>
-  </si>
-  <si>
-    <t>Alternate SSVPC Member</t>
-  </si>
-  <si>
-    <t>Noted By:</t>
-  </si>
-  <si>
-    <t>BEZALEEL O. SOLTURA</t>
-  </si>
-  <si>
-    <t>SSVPC Head</t>
+    <t>For Item(s) 1 to 22 to SD Leal Graphics</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>JOHN M. CEREZO</t>
+  </si>
+  <si>
+    <t>ATTY. JORDAN V. NADAL</t>
+  </si>
+  <si>
+    <t>BAC Chairman</t>
+  </si>
+  <si>
+    <t>BAC Vice Chairman</t>
+  </si>
+  <si>
+    <t>BAC Member</t>
+  </si>
+  <si>
+    <t>GILBERTO L. TUMAMAC</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN</t>
+  </si>
+  <si>
+    <t>Alternate BAC Member</t>
   </si>
   <si>
     <t>Eligibility Requirements:</t>
@@ -174,6 +299,10 @@
   </si>
   <si>
     <t>Purpose:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayumanggi Press, Inc.
+</t>
   </si>
 </sst>
 </file>
@@ -181,11 +310,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="₱#,##0.00_-"/>
+    <numFmt numFmtId="164" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="₱#,##0.00_-"/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -242,25 +371,7 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
       <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="8"/>
@@ -278,10 +389,10 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="0"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -299,12 +410,12 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EDF7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -349,18 +454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EDF7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -385,17 +484,36 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF6A6D6D"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF6A6D6D"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF6A6D6D"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF6A6D6D"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -441,45 +559,12 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -516,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="76">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -544,239 +629,206 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="6" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="6" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="7" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="164" fillId="7" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="8" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="164" fillId="8" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="9" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,7 +1197,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1186,106 +1238,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="27" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="44" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="21" t="s">
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="30" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="42">
+        <v>421870</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="64">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
@@ -1304,498 +1356,928 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="52" t="s">
+      <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="H14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="I14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="53" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="51"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="65" t="s">
+      <c r="J15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
-      <c r="A16" s="18">
-        <v>1</v>
-      </c>
-      <c r="B16" s="38" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="55">
+        <v>170</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="74">
+      <c r="H16" s="56">
+        <v>110</v>
+      </c>
+      <c r="I16" s="66">
+        <v>46.6</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="70">
+        <v>90</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="70">
+        <v>0</v>
+      </c>
+      <c r="N16" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="58">
+        <v>2</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="55">
+        <v>170</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="56">
+        <v>95</v>
+      </c>
+      <c r="I17" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="70">
+        <v>75</v>
+      </c>
+      <c r="L17" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="70">
+        <v>0</v>
+      </c>
+      <c r="N17" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="58">
+        <v>3</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="55">
+        <v>170</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="56">
+        <v>95</v>
+      </c>
+      <c r="I18" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="70">
+        <v>40.5</v>
+      </c>
+      <c r="L18" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="70">
+        <v>0</v>
+      </c>
+      <c r="N18" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
+      <c r="A19" s="60">
+        <v>4</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="55">
+        <v>170</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="56">
+        <v>95</v>
+      </c>
+      <c r="I19" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="70">
+        <v>75</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="70">
+        <v>0</v>
+      </c>
+      <c r="N19" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="58">
+        <v>5</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="55">
+        <v>170</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="56">
+        <v>95</v>
+      </c>
+      <c r="I20" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="70">
+        <v>75</v>
+      </c>
+      <c r="L20" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="70">
+        <v>0</v>
+      </c>
+      <c r="N20" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="58">
+        <v>6</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="55">
+        <v>170</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="56">
+        <v>95</v>
+      </c>
+      <c r="I21" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="70">
+        <v>75</v>
+      </c>
+      <c r="L21" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="70">
+        <v>0</v>
+      </c>
+      <c r="N21" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="58">
+        <v>7</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="55">
+        <v>170</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="56">
+        <v>95</v>
+      </c>
+      <c r="I22" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="70">
+        <v>75</v>
+      </c>
+      <c r="L22" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="70">
+        <v>0</v>
+      </c>
+      <c r="N22" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="58">
+        <v>8</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="55">
+        <v>170</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="56">
+        <v>95</v>
+      </c>
+      <c r="I23" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="70">
+        <v>75</v>
+      </c>
+      <c r="L23" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="70">
+        <v>0</v>
+      </c>
+      <c r="N23" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="58">
+        <v>9</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="55">
+        <v>170</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="56">
+        <v>95</v>
+      </c>
+      <c r="I24" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="70">
+        <v>75</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="70">
+        <v>0</v>
+      </c>
+      <c r="N24" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="58">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="55">
+        <v>170</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="56">
+        <v>95</v>
+      </c>
+      <c r="I25" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="56">
+        <v>75</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="56">
+        <v>0</v>
+      </c>
+      <c r="N25" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="58">
+        <v>11</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="55">
+        <v>170</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="56">
+        <v>95</v>
+      </c>
+      <c r="I26" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="56">
+        <v>75</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="56">
+        <v>0</v>
+      </c>
+      <c r="N26" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="58">
+        <v>12</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="55">
+        <v>170</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="56">
+        <v>95</v>
+      </c>
+      <c r="I27" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="56">
+        <v>75</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0</v>
+      </c>
+      <c r="N27" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="58">
+        <v>13</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="55">
+        <v>160</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="56">
+        <v>100</v>
+      </c>
+      <c r="I28" s="66">
+        <v>40.5</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="56">
+        <v>80</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="56">
+        <v>0</v>
+      </c>
+      <c r="N28" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="58">
+        <v>14</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="55">
+        <v>160</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="55">
+        <v>58.5</v>
+      </c>
+      <c r="I29" s="66">
+        <v>35.4</v>
+      </c>
+      <c r="J29" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="56">
+        <v>58</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="56">
+        <v>0</v>
+      </c>
+      <c r="N29" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="61">
+        <v>15</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="55">
+        <v>160</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="55">
+        <v>89.5</v>
+      </c>
+      <c r="I30" s="67">
+        <v>41</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="55">
+        <v>75</v>
+      </c>
+      <c r="L30" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="55">
+        <v>0</v>
+      </c>
+      <c r="N30" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="62">
+        <v>16</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55">
+        <v>160</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="55">
+        <v>54.5</v>
+      </c>
+      <c r="I31" s="67">
+        <v>35.4</v>
+      </c>
+      <c r="J31" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="55">
+        <v>40</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="55">
+        <v>0</v>
+      </c>
+      <c r="N31" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="62">
+        <v>17</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="55">
+        <v>160</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="55">
+        <v>89.5</v>
+      </c>
+      <c r="I32" s="67">
+        <v>33.8</v>
+      </c>
+      <c r="J32" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="55">
+        <v>70</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="55">
+        <v>0</v>
+      </c>
+      <c r="N32" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="51">
+        <v>18</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="55">
+        <v>160</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="55">
+        <v>186.25</v>
+      </c>
+      <c r="I33" s="67">
+        <v>184</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="55">
+        <v>180</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="55">
+        <v>0</v>
+      </c>
+      <c r="N33" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="51">
+        <v>19</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="55">
+        <v>160</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="55">
+        <v>186.25</v>
+      </c>
+      <c r="I34" s="67">
+        <v>104.5</v>
+      </c>
+      <c r="J34" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="55">
+        <v>180</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="55">
+        <v>0</v>
+      </c>
+      <c r="N34" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="51">
         <v>20</v>
       </c>
-      <c r="G16" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="75">
-        <v>500</v>
-      </c>
-      <c r="I16" s="76">
-        <v>500</v>
-      </c>
-      <c r="J16" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="84">
+      <c r="B35" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="55">
+        <v>160</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="55">
+        <v>95</v>
+      </c>
+      <c r="I35" s="67">
+        <v>40</v>
+      </c>
+      <c r="J35" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="55">
+        <v>72</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="55">
         <v>0</v>
       </c>
-      <c r="L16" s="84">
+      <c r="N35" s="55">
         <v>0</v>
       </c>
-      <c r="M16" s="81">
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="51">
+        <v>21</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="55">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="55">
+        <v>72.8</v>
+      </c>
+      <c r="I36" s="67">
+        <v>62</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="55">
+        <v>72</v>
+      </c>
+      <c r="L36" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="55">
         <v>0</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N36" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="85">
+    <row r="37" spans="1:14">
+      <c r="A37" s="51">
+        <v>22</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="55">
+        <v>160</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="55">
+        <v>95</v>
+      </c>
+      <c r="I37" s="67">
+        <v>40</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="55">
+        <v>72</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="55">
         <v>0</v>
       </c>
-      <c r="M17" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="81">
+      <c r="N37" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="10"/>
-      <c r="B26" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="10"/>
-      <c r="B27" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="62"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="6"/>
@@ -1814,7 +2296,9 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="6"/>
+      <c r="A40" s="72" t="s">
+        <v>74</v>
+      </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1830,7 +2314,9 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1846,7 +2332,9 @@
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1878,7 +2366,9 @@
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1927,33 +2417,45 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="73" t="s">
+        <v>78</v>
+      </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="G47" s="73" t="s">
+        <v>79</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="73" t="s">
+        <v>80</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="74" t="s">
+        <v>81</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="74" t="s">
+        <v>82</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="L48" s="74" t="s">
+        <v>83</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
@@ -2010,12 +2512,16 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="73" t="s">
+        <v>84</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -2026,12 +2532,16 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="74" t="s">
+        <v>83</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="74" t="s">
+        <v>86</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -2054,7 +2564,9 @@
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="6"/>
+      <c r="A55" s="75" t="s">
+        <v>87</v>
+      </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2070,7 +2582,9 @@
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="6"/>
+      <c r="A56" s="75" t="s">
+        <v>88</v>
+      </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2086,7 +2600,9 @@
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="6"/>
+      <c r="A57" s="75" t="s">
+        <v>89</v>
+      </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4408,20 +4924,12 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A14:A15"/>
@@ -4438,12 +4946,43 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4474,114 +5013,119 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="71" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="71" t="s">
+      <c r="K10" s="47"/>
+      <c r="L10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="71" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="70" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="73"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -4605,6 +5149,7 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B16:E16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$N$56</definedName>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -32,40 +31,43 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on October 26, 2020 at 12:00 am</t>
+    <t>For the quotation opened on January 15, 1970 at 08:00 am</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-09-0364</t>
+    <t>2020-11-0569</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>September 14, 2020</t>
+    <t>November 24, 2020</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
   </si>
   <si>
-    <t>Small Value Procurement</t>
+    <t>Shopping</t>
   </si>
   <si>
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-200</t>
+    <t>2020-337</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
+    <t>November 26, 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t>SALINTUBIG IEC Materials</t>
+    <t xml:space="preserve">Shirt of Participants in the Training on the Use of HRIS, DMS and FRS for Administrative Personnel   </t>
   </si>
   <si>
     <t>ABC:</t>
@@ -74,7 +76,7 @@
     <t>Office:</t>
   </si>
   <si>
-    <t>LGCDD</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>ITEM NO.</t>
@@ -92,15 +94,7 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>SD Leal Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover and Pages Corporation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorilla Trading
-</t>
+    <t>347 School Office Supplies, Inc.</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -109,141 +103,15 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>Poster: Palarong Pambata ukol sa COVID19 (DOH/UNICEF) (1)</t>
+    <t>Custom Polo Shirt</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>7,922.00</t>
-  </si>
-  <si>
-    <t>15,300.00</t>
-  </si>
-  <si>
-    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (2)</t>
-  </si>
-  <si>
-    <t>6,885.00</t>
-  </si>
-  <si>
-    <t>12,750.00</t>
-  </si>
-  <si>
-    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (3)</t>
-  </si>
-  <si>
-    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (4)</t>
-  </si>
-  <si>
-    <t>Poster: Sama Sama Natin Sugpuin and COVID19 (DOH/ UNICEF) (5)</t>
-  </si>
-  <si>
-    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (6)</t>
-  </si>
-  <si>
-    <t>Poster: Do you wash your hands</t>
-  </si>
-  <si>
-    <t>Poster: When to wash your hands</t>
-  </si>
-  <si>
-    <t>Poster: 20 second hand washing rule</t>
-  </si>
-  <si>
-    <t>Poster: 80% of infections through hands</t>
-  </si>
-  <si>
-    <t>Poster: 16% reduction of respiratory risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster: 50% reduction of diarrheal  diseases </t>
-  </si>
-  <si>
-    <t>Poster: Maximum Prescribed Implementation Timelines</t>
-  </si>
-  <si>
-    <t>6,480.00</t>
-  </si>
-  <si>
-    <t>12,800.00</t>
-  </si>
-  <si>
-    <t>Poster: PIT vs. PMC</t>
-  </si>
-  <si>
-    <t>5,664.00</t>
-  </si>
-  <si>
-    <t>9,280.00</t>
-  </si>
-  <si>
-    <t>Poster: Eligible Projects for Funding</t>
-  </si>
-  <si>
-    <t>6,560.00</t>
-  </si>
-  <si>
-    <t>12,000.00</t>
-  </si>
-  <si>
-    <t>Poster: Levels of Service for Water Supply System</t>
-  </si>
-  <si>
-    <t>6,400.00</t>
-  </si>
-  <si>
-    <t>Poster: LGU Counterpart</t>
-  </si>
-  <si>
-    <t>5,408.00</t>
-  </si>
-  <si>
-    <t>11,200.00</t>
-  </si>
-  <si>
-    <t>Briefer on CapDev Training Program under the AM Program</t>
-  </si>
-  <si>
-    <t>29,440.00</t>
-  </si>
-  <si>
-    <t>28,800.00</t>
-  </si>
-  <si>
-    <t>Briefer on CapDev Training Programs For Water Supply System</t>
-  </si>
-  <si>
-    <t>16,720.00</t>
-  </si>
-  <si>
-    <t>AM Brochures</t>
-  </si>
-  <si>
-    <t>11,520.00</t>
-  </si>
-  <si>
-    <t>Desk Calendar</t>
-  </si>
-  <si>
-    <t>62,000.00</t>
-  </si>
-  <si>
-    <t>72,000.00</t>
-  </si>
-  <si>
-    <t>AM Fact Sheet</t>
-  </si>
-  <si>
     <t>GRANDTOTAL</t>
   </si>
   <si>
-    <t>234,393.00</t>
-  </si>
-  <si>
-    <t>354,005.00</t>
-  </si>
-  <si>
     <t>Remarks:</t>
   </si>
   <si>
@@ -253,34 +121,31 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 22 to SD Leal Graphics</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>JOHN M. CEREZO</t>
-  </si>
-  <si>
-    <t>ATTY. JORDAN V. NADAL</t>
-  </si>
-  <si>
-    <t>BAC Chairman</t>
-  </si>
-  <si>
-    <t>BAC Vice Chairman</t>
-  </si>
-  <si>
-    <t>BAC Member</t>
-  </si>
-  <si>
-    <t>GILBERTO L. TUMAMAC</t>
-  </si>
-  <si>
-    <t>JAY-AR T. BELTRAN</t>
-  </si>
-  <si>
-    <t>Alternate BAC Member</t>
+    <t>For Item(s) 1 to 1 to 347 School Office Supplies, Inc.</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
+  </si>
+  <si>
+    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
+  </si>
+  <si>
+    <t>HANNAH GRACE S. GUERRERO</t>
+  </si>
+  <si>
+    <t>SSVPC Member</t>
+  </si>
+  <si>
+    <t>Alternate SSVPC Member</t>
+  </si>
+  <si>
+    <t>Noted By:</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>SSVPC Head</t>
   </si>
   <si>
     <t>Eligibility Requirements:</t>
@@ -290,19 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">          1. Valid Business Permit       2. Latest Income / Business Tax Return       3. PhilGEPS Registration No.</t>
-  </si>
-  <si>
-    <t>PR Date:</t>
-  </si>
-  <si>
-    <t>RFQ Date:</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayumanggi Press, Inc.
-</t>
   </si>
 </sst>
 </file>
@@ -310,11 +162,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="₱#,##0.00_-"/>
-    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -371,7 +223,25 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="8"/>
@@ -384,15 +254,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -415,7 +276,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +303,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6CFD5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFd9edf7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -459,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -476,17 +331,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -559,6 +403,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -567,20 +422,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF(0,0,0)"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF(0,0,0)"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF(0,0,0)"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF(0,0,0)"/>
       </bottom>
     </border>
     <border>
@@ -601,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -629,8 +470,32 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -638,11 +503,14 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -659,32 +527,26 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -702,9 +564,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -713,7 +572,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,112 +581,82 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="164" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="6" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="6" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="7" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1026,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1238,106 +1067,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="14.45">
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="24" s="1" customFormat="1">
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="34" t="s">
+      <c r="K10" s="44"/>
+      <c r="L10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="28" t="s">
+      <c r="I11" s="42"/>
+      <c r="J11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42">
-        <v>421870</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="37" t="s">
+      <c r="A12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="48">
+        <v>14000</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="45"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
+      <c r="H12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
@@ -1356,928 +1185,486 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="28.5" s="1" customFormat="1">
-      <c r="A14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="H14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
+      <c r="I14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
+      <c r="A16" s="51">
+        <v>1</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="52" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="55">
+        <v>40</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="55">
-        <v>170</v>
-      </c>
-      <c r="G16" s="55" t="s">
+      <c r="H16" s="56">
+        <v>350</v>
+      </c>
+      <c r="I16" s="58">
+        <v>10</v>
+      </c>
+      <c r="J16" s="57">
+        <v>400</v>
+      </c>
+      <c r="K16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="56">
-        <v>110</v>
-      </c>
-      <c r="I16" s="66">
-        <v>46.6</v>
-      </c>
-      <c r="J16" s="65" t="s">
+      <c r="L16" s="60">
+        <v>0</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="62">
+        <v>400</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="70">
-        <v>90</v>
-      </c>
-      <c r="L16" s="70" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="70">
-        <v>0</v>
-      </c>
-      <c r="N16" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="58">
-        <v>2</v>
-      </c>
-      <c r="B17" s="59" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="55">
-        <v>170</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="56">
-        <v>95</v>
-      </c>
-      <c r="I17" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J17" s="65" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="70">
-        <v>75</v>
-      </c>
-      <c r="L17" s="70" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="10"/>
+      <c r="B26" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="70">
-        <v>0</v>
-      </c>
-      <c r="N17" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="58">
-        <v>3</v>
-      </c>
-      <c r="B18" s="59" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="55">
-        <v>170</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="56">
-        <v>95</v>
-      </c>
-      <c r="I18" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J18" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="70">
-        <v>40.5</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="70">
-        <v>0</v>
-      </c>
-      <c r="N18" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
-      <c r="A19" s="60">
-        <v>4</v>
-      </c>
-      <c r="B19" s="59" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="55">
-        <v>170</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="56">
-        <v>95</v>
-      </c>
-      <c r="I19" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="70">
-        <v>75</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="70">
-        <v>0</v>
-      </c>
-      <c r="N19" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="58">
-        <v>5</v>
-      </c>
-      <c r="B20" s="59" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="10"/>
+      <c r="B27" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="55">
-        <v>170</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="56">
-        <v>95</v>
-      </c>
-      <c r="I20" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J20" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="70">
-        <v>75</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="70">
-        <v>0</v>
-      </c>
-      <c r="N20" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="58">
-        <v>6</v>
-      </c>
-      <c r="B21" s="59" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="55">
-        <v>170</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="56">
-        <v>95</v>
-      </c>
-      <c r="I21" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="70">
-        <v>75</v>
-      </c>
-      <c r="L21" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="70">
-        <v>0</v>
-      </c>
-      <c r="N21" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="58">
-        <v>7</v>
-      </c>
-      <c r="B22" s="59" t="s">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="16"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="55">
-        <v>170</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="56">
-        <v>95</v>
-      </c>
-      <c r="I22" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J22" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="70">
-        <v>75</v>
-      </c>
-      <c r="L22" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="70">
-        <v>0</v>
-      </c>
-      <c r="N22" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="58">
-        <v>8</v>
-      </c>
-      <c r="B23" s="59" t="s">
+      <c r="I31" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="55">
-        <v>170</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="56">
-        <v>95</v>
-      </c>
-      <c r="I23" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J23" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="70">
-        <v>75</v>
-      </c>
-      <c r="L23" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="70">
-        <v>0</v>
-      </c>
-      <c r="N23" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="58">
-        <v>9</v>
-      </c>
-      <c r="B24" s="59" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="55">
-        <v>170</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="56">
-        <v>95</v>
-      </c>
-      <c r="I24" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="70">
-        <v>75</v>
-      </c>
-      <c r="L24" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="70">
-        <v>0</v>
-      </c>
-      <c r="N24" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="58">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="55">
-        <v>170</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="56">
-        <v>95</v>
-      </c>
-      <c r="I25" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="56">
-        <v>75</v>
-      </c>
-      <c r="L25" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="56">
-        <v>0</v>
-      </c>
-      <c r="N25" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="58">
-        <v>11</v>
-      </c>
-      <c r="B26" s="59" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="55">
-        <v>170</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="56">
-        <v>95</v>
-      </c>
-      <c r="I26" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J26" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="56">
-        <v>75</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="56">
-        <v>0</v>
-      </c>
-      <c r="N26" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="58">
-        <v>12</v>
-      </c>
-      <c r="B27" s="59" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="55">
-        <v>170</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="56">
-        <v>95</v>
-      </c>
-      <c r="I27" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J27" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="56">
-        <v>75</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="56">
-        <v>0</v>
-      </c>
-      <c r="N27" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="58">
-        <v>13</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="55">
-        <v>160</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="56">
-        <v>100</v>
-      </c>
-      <c r="I28" s="66">
-        <v>40.5</v>
-      </c>
-      <c r="J28" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="56">
-        <v>80</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0</v>
-      </c>
-      <c r="N28" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="58">
-        <v>14</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="55">
-        <v>160</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="55">
-        <v>58.5</v>
-      </c>
-      <c r="I29" s="66">
-        <v>35.4</v>
-      </c>
-      <c r="J29" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="56">
-        <v>58</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="56">
-        <v>0</v>
-      </c>
-      <c r="N29" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="61">
-        <v>15</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="55">
-        <v>160</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="55">
-        <v>89.5</v>
-      </c>
-      <c r="I30" s="67">
-        <v>41</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="55">
-        <v>75</v>
-      </c>
-      <c r="L30" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="55">
-        <v>0</v>
-      </c>
-      <c r="N30" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="62">
-        <v>16</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55">
-        <v>160</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="55">
-        <v>54.5</v>
-      </c>
-      <c r="I31" s="67">
-        <v>35.4</v>
-      </c>
-      <c r="J31" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="55">
-        <v>40</v>
-      </c>
-      <c r="L31" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="55">
-        <v>0</v>
-      </c>
-      <c r="N31" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="62">
-        <v>17</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="55">
-        <v>160</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="55">
-        <v>89.5</v>
-      </c>
-      <c r="I32" s="67">
-        <v>33.8</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="55">
-        <v>70</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="55">
-        <v>0</v>
-      </c>
-      <c r="N32" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="51">
-        <v>18</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="55">
-        <v>160</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="55">
-        <v>186.25</v>
-      </c>
-      <c r="I33" s="67">
-        <v>184</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" s="55">
-        <v>180</v>
-      </c>
-      <c r="L33" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="55">
-        <v>0</v>
-      </c>
-      <c r="N33" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="51">
-        <v>19</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="55">
-        <v>160</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="55">
-        <v>186.25</v>
-      </c>
-      <c r="I34" s="67">
-        <v>104.5</v>
-      </c>
-      <c r="J34" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="55">
-        <v>180</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="55">
-        <v>0</v>
-      </c>
-      <c r="N34" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="51">
-        <v>20</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="55">
-        <v>160</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="55">
-        <v>95</v>
-      </c>
-      <c r="I35" s="67">
-        <v>40</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="55">
-        <v>72</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" s="55">
-        <v>0</v>
-      </c>
-      <c r="N35" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="51">
-        <v>21</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="55">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="55">
-        <v>72.8</v>
-      </c>
-      <c r="I36" s="67">
-        <v>62</v>
-      </c>
-      <c r="J36" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36" s="55">
-        <v>72</v>
-      </c>
-      <c r="L36" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="M36" s="55">
-        <v>0</v>
-      </c>
-      <c r="N36" s="55">
-        <v>0</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="51">
-        <v>22</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="55">
-        <v>160</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="55">
-        <v>95</v>
-      </c>
-      <c r="I37" s="67">
-        <v>40</v>
-      </c>
-      <c r="J37" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="55">
-        <v>72</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" s="55">
-        <v>0</v>
-      </c>
-      <c r="N37" s="55">
-        <v>0</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38" s="55">
-        <v>0</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="6"/>
@@ -2296,9 +1683,7 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="72" t="s">
-        <v>74</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2314,9 +1699,7 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2332,9 +1715,7 @@
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2366,9 +1747,7 @@
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2417,45 +1796,33 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6"/>
-      <c r="B47" s="73" t="s">
-        <v>78</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="73" t="s">
-        <v>79</v>
-      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="73" t="s">
-        <v>80</v>
-      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="6"/>
-      <c r="B48" s="74" t="s">
-        <v>81</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="74" t="s">
-        <v>82</v>
-      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="74" t="s">
-        <v>83</v>
-      </c>
+      <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
@@ -2512,16 +1879,12 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="73" t="s">
-        <v>84</v>
-      </c>
+      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="73" t="s">
-        <v>85</v>
-      </c>
+      <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -2532,16 +1895,12 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="74" t="s">
-        <v>83</v>
-      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="74" t="s">
-        <v>86</v>
-      </c>
+      <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -2564,9 +1923,7 @@
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="75" t="s">
-        <v>87</v>
-      </c>
+      <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2582,9 +1939,7 @@
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="75" t="s">
-        <v>88</v>
-      </c>
+      <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2600,9 +1955,7 @@
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="75" t="s">
-        <v>89</v>
-      </c>
+      <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4951,38 +4304,15 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4997,171 +4327,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="3" spans="1:14">
-      <c r="C3" s="44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="C4" s="44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="F8" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="F9" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="I14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="51"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B16:E16"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>